--- a/public/data/ballparks.xlsx
+++ b/public/data/ballparks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\talk-future-of-dev\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allisb\source\repos\Olive-Tracker\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D110EB5D-244A-4723-BD91-9B3FB0171F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6758713-4686-43E5-8982-71E800665E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="33946" windowHeight="22096" xr2:uid="{64A02C90-724C-40E9-82C3-F967BBB77E6F}"/>
+    <workbookView xWindow="7763" yWindow="1837" windowWidth="14384" windowHeight="8086" xr2:uid="{64A02C90-724C-40E9-82C3-F967BBB77E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="484">
   <si>
     <t>WI</t>
   </si>
@@ -63,9 +63,6 @@
     <t>KY</t>
   </si>
   <si>
-    <t>MD</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>PA</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
@@ -96,9 +90,6 @@
     <t>CO</t>
   </si>
   <si>
-    <t>NC</t>
-  </si>
-  <si>
     <t>WA</t>
   </si>
   <si>
@@ -198,12 +189,6 @@
     <t>https://www.mlb.com/cardinals/ballpark</t>
   </si>
   <si>
-    <t>(410) 685-9800</t>
-  </si>
-  <si>
-    <t>https://www.mlb.com/orioles/ballpark</t>
-  </si>
-  <si>
     <t>(415) 972-2000</t>
   </si>
   <si>
@@ -291,9 +276,6 @@
     <t>RI</t>
   </si>
   <si>
-    <t>(716) 846-2000</t>
-  </si>
-  <si>
     <t>(704) 274-8300</t>
   </si>
   <si>
@@ -582,9 +564,6 @@
     <t>Oakland Athletics</t>
   </si>
   <si>
-    <t>Buffalo Bisons</t>
-  </si>
-  <si>
     <t>Charlotte Knights</t>
   </si>
   <si>
@@ -1026,9 +1005,6 @@
     <t>Saint Louis</t>
   </si>
   <si>
-    <t>Baltimore</t>
-  </si>
-  <si>
     <t>San Francisco</t>
   </si>
   <si>
@@ -1071,12 +1047,6 @@
     <t>Oakland</t>
   </si>
   <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
     <t>Columbus</t>
   </si>
   <si>
@@ -1323,15 +1293,6 @@
     <t>One Royal Way</t>
   </si>
   <si>
-    <t>Oriole Park</t>
-  </si>
-  <si>
-    <t>https://www.milb.com/buffalo/ballpark/sahlen-field</t>
-  </si>
-  <si>
-    <t>Sahlen Field</t>
-  </si>
-  <si>
     <t>One James D. Griffin Plaza</t>
   </si>
   <si>
@@ -1507,6 +1468,21 @@
   </si>
   <si>
     <t>Visited</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Bremerton</t>
+  </si>
+  <si>
+    <t>https://www.bing.com/travelguide?q=Bremerton&amp;l2sid=bf29be76-fddd-f34f-d550-2e64240d0673&amp;form=PLACAB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>We went camping here!</t>
   </si>
 </sst>
 </file>
@@ -1870,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3A356-E4B9-401F-9581-53C9D178E23F}">
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L3" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1899,64 +1875,64 @@
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K1" t="s">
+        <v>463</v>
+      </c>
+      <c r="L1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M1" t="s">
         <v>465</v>
       </c>
-      <c r="B1" t="s">
+      <c r="N1" t="s">
         <v>466</v>
       </c>
-      <c r="C1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
+        <v>467</v>
+      </c>
+      <c r="P1" t="s">
         <v>468</v>
       </c>
-      <c r="E1" t="s">
+      <c r="Q1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R1" t="s">
+        <v>477</v>
+      </c>
+      <c r="S1" t="s">
         <v>469</v>
       </c>
-      <c r="F1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H1" t="s">
-        <v>471</v>
-      </c>
-      <c r="I1" t="s">
-        <v>472</v>
-      </c>
-      <c r="J1" t="s">
-        <v>475</v>
-      </c>
-      <c r="K1" t="s">
-        <v>476</v>
-      </c>
-      <c r="L1" t="s">
-        <v>477</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="T1" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="N1" t="s">
-        <v>479</v>
-      </c>
-      <c r="O1" t="s">
-        <v>480</v>
-      </c>
-      <c r="P1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>489</v>
-      </c>
-      <c r="R1" t="s">
-        <v>490</v>
-      </c>
-      <c r="S1" t="s">
-        <v>482</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
@@ -1964,61 +1940,61 @@
         <v>1233</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C2" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>183</v>
+        <v>483</v>
       </c>
       <c r="G2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="J2" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="K2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="L2" t="s">
-        <v>346</v>
+        <v>480</v>
       </c>
       <c r="M2" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N2">
-        <v>14203</v>
+        <v>98337</v>
       </c>
       <c r="O2" t="s">
-        <v>86</v>
+        <v>482</v>
       </c>
       <c r="P2" t="s">
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>42.881009000000098</v>
+        <v>47.567317600000003</v>
       </c>
       <c r="R2">
-        <v>-78.874015999999997</v>
+        <v>-122.63263910000001</v>
       </c>
       <c r="S2" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.45">
@@ -2026,46 +2002,46 @@
         <v>1234</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="K3" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="L3" t="s">
-        <v>347</v>
+        <v>479</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3">
         <v>28202</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
         <v>1</v>
@@ -2077,7 +2053,7 @@
         <v>-80.849395000000001</v>
       </c>
       <c r="S3" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -2088,46 +2064,46 @@
         <v>1235</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="L4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>43215</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
         <v>1</v>
@@ -2139,7 +2115,7 @@
         <v>-83.011658999999995</v>
       </c>
       <c r="S4" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -2150,46 +2126,46 @@
         <v>1236</v>
       </c>
       <c r="B5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="K5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="L5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="M5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N5">
         <v>27701</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
         <v>1</v>
@@ -2201,7 +2177,7 @@
         <v>-78.903839999999903</v>
       </c>
       <c r="S5" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -2212,46 +2188,46 @@
         <v>1237</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="G6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N6">
         <v>30043</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
         <v>1</v>
@@ -2263,7 +2239,7 @@
         <v>-83.992985865999998</v>
       </c>
       <c r="S6" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -2274,46 +2250,46 @@
         <v>1238</v>
       </c>
       <c r="B7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="K7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="L7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>46225</v>
       </c>
       <c r="O7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
         <v>1</v>
@@ -2325,7 +2301,7 @@
         <v>-86.168499999999895</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="T7" t="b">
         <v>0</v>
@@ -2336,46 +2312,46 @@
         <v>1239</v>
       </c>
       <c r="B8" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C8" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H8" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="K8" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L8" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>18109</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s">
         <v>1</v>
@@ -2387,7 +2363,7 @@
         <v>-75.452483999999998</v>
       </c>
       <c r="S8" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="T8" t="b">
         <v>0</v>
@@ -2398,37 +2374,37 @@
         <v>1240</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H9" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K9" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L9" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="M9" t="s">
         <v>9</v>
@@ -2437,7 +2413,7 @@
         <v>40202</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="P9" t="s">
         <v>1</v>
@@ -2449,7 +2425,7 @@
         <v>-85.744527999999903</v>
       </c>
       <c r="S9" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -2460,46 +2436,46 @@
         <v>1241</v>
       </c>
       <c r="B10" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K10" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L10" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="M10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>23510</v>
       </c>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
         <v>1</v>
@@ -2511,7 +2487,7 @@
         <v>-76.278690999999995</v>
       </c>
       <c r="S10" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="T10" t="b">
         <v>0</v>
@@ -2522,46 +2498,46 @@
         <v>1242</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="K11" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L11" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="N11" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="P11" t="s">
         <v>1</v>
@@ -2573,7 +2549,7 @@
         <v>-71.370109999999997</v>
       </c>
       <c r="S11" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -2584,37 +2560,37 @@
         <v>1243</v>
       </c>
       <c r="B12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C12" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="K12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M12" t="s">
         <v>8</v>
@@ -2623,7 +2599,7 @@
         <v>14608</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="P12" t="s">
         <v>1</v>
@@ -2635,7 +2611,7 @@
         <v>-77.620387999999906</v>
       </c>
       <c r="S12" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -2646,46 +2622,46 @@
         <v>1244</v>
       </c>
       <c r="B13" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C13" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H13" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="K13" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L13" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>18507</v>
       </c>
       <c r="O13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="P13" t="s">
         <v>1</v>
@@ -2697,7 +2673,7 @@
         <v>-75.683851564999898</v>
       </c>
       <c r="S13" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="T13" t="b">
         <v>0</v>
@@ -2708,37 +2684,37 @@
         <v>1245</v>
       </c>
       <c r="B14" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C14" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D14" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G14" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H14" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="K14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="L14" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="M14" t="s">
         <v>8</v>
@@ -2747,7 +2723,7 @@
         <v>13208</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s">
         <v>1</v>
@@ -2767,37 +2743,37 @@
         <v>1246</v>
       </c>
       <c r="B15" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="L15" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M15" t="s">
         <v>6</v>
@@ -2806,7 +2782,7 @@
         <v>43604</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s">
         <v>1</v>
@@ -2818,7 +2794,7 @@
         <v>-83.538659999999894</v>
       </c>
       <c r="S15" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
@@ -2829,46 +2805,46 @@
         <v>1247</v>
       </c>
       <c r="B16" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="K16" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="L16" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="M16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N16">
         <v>87106</v>
       </c>
       <c r="O16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
         <v>1</v>
@@ -2880,7 +2856,7 @@
         <v>-106.629126</v>
       </c>
       <c r="S16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="T16" t="b">
         <v>0</v>
@@ -2891,46 +2867,46 @@
         <v>1249</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D17" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F17" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H17" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J17" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K17" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L17" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N17">
         <v>79901</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P17" t="s">
         <v>1</v>
@@ -2942,7 +2918,7 @@
         <v>-106.492542782</v>
       </c>
       <c r="S17" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="T17" t="b">
         <v>0</v>
@@ -2953,37 +2929,37 @@
         <v>1250</v>
       </c>
       <c r="B18" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" t="s">
         <v>214</v>
       </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
       <c r="F18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H18" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="K18" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="L18" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M18" t="s">
         <v>3</v>
@@ -2992,7 +2968,7 @@
         <v>93721</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s">
         <v>1</v>
@@ -3004,7 +2980,7 @@
         <v>-119.790644</v>
       </c>
       <c r="S18" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
@@ -3015,46 +2991,46 @@
         <v>1251</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" t="s">
         <v>214</v>
       </c>
-      <c r="E19" t="s">
-        <v>221</v>
-      </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H19" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J19" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="K19" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L19" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>50309</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="P19" t="s">
         <v>1</v>
@@ -3066,7 +3042,7 @@
         <v>-93.616027000000003</v>
       </c>
       <c r="S19" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="T19" t="b">
         <v>0</v>
@@ -3077,46 +3053,46 @@
         <v>1252</v>
       </c>
       <c r="B20" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="G20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J20" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="K20" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="L20" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>89135</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P20" t="s">
         <v>1</v>
@@ -3128,7 +3104,7 @@
         <v>-115.129891</v>
       </c>
       <c r="S20" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="T20" t="b">
         <v>0</v>
@@ -3139,46 +3115,46 @@
         <v>1253</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D21" t="s">
+        <v>207</v>
+      </c>
+      <c r="E21" t="s">
         <v>214</v>
       </c>
-      <c r="E21" t="s">
-        <v>221</v>
-      </c>
       <c r="F21" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K21" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L21" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="M21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>38103</v>
       </c>
       <c r="O21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="P21" t="s">
         <v>1</v>
@@ -3190,7 +3166,7 @@
         <v>-90.049308695999997</v>
       </c>
       <c r="S21" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="T21" t="b">
         <v>0</v>
@@ -3201,46 +3177,46 @@
         <v>1254</v>
       </c>
       <c r="B22" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E22" t="s">
         <v>214</v>
       </c>
-      <c r="E22" t="s">
-        <v>221</v>
-      </c>
       <c r="F22" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H22" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J22" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="K22" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="L22" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="M22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N22">
         <v>37219</v>
       </c>
       <c r="O22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="P22" t="s">
         <v>1</v>
@@ -3252,7 +3228,7 @@
         <v>-86.784721000000005</v>
       </c>
       <c r="S22" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="T22" t="b">
         <v>0</v>
@@ -3263,46 +3239,46 @@
         <v>1255</v>
       </c>
       <c r="B23" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E23" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J23" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L23" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N23">
         <v>70003</v>
       </c>
       <c r="O23" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="P23" t="s">
         <v>1</v>
@@ -3322,46 +3298,46 @@
         <v>1256</v>
       </c>
       <c r="B24" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E24" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H24" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I24" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L24" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M24" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>73104</v>
       </c>
       <c r="O24" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="P24" t="s">
         <v>1</v>
@@ -3373,7 +3349,7 @@
         <v>-97.507937999999996</v>
       </c>
       <c r="S24" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="T24" t="b">
         <v>1</v>
@@ -3384,46 +3360,46 @@
         <v>1257</v>
       </c>
       <c r="B25" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C25" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D25" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" t="s">
         <v>214</v>
       </c>
-      <c r="E25" t="s">
-        <v>221</v>
-      </c>
       <c r="F25" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="L25" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>68046</v>
       </c>
       <c r="O25" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P25" t="s">
         <v>1</v>
@@ -3435,7 +3411,7 @@
         <v>-96.106615000000005</v>
       </c>
       <c r="S25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T25" t="b">
         <v>0</v>
@@ -3446,46 +3422,46 @@
         <v>1258</v>
       </c>
       <c r="B26" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
         <v>214</v>
       </c>
-      <c r="E26" t="s">
-        <v>221</v>
-      </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I26" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L26" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="M26" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N26">
         <v>89501</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s">
         <v>1</v>
@@ -3497,7 +3473,7 @@
         <v>-119.808256</v>
       </c>
       <c r="S26" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="T26" t="b">
         <v>0</v>
@@ -3508,46 +3484,46 @@
         <v>1259</v>
       </c>
       <c r="B27" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C27" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H27" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>78665</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="P27" t="s">
         <v>1</v>
@@ -3559,7 +3535,7 @@
         <v>-97.630273000000003</v>
       </c>
       <c r="S27" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="T27" t="b">
         <v>1</v>
@@ -3570,37 +3546,37 @@
         <v>1260</v>
       </c>
       <c r="B28" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C28" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" t="s">
         <v>214</v>
       </c>
-      <c r="E28" t="s">
-        <v>221</v>
-      </c>
       <c r="F28" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="L28" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M28" t="s">
         <v>3</v>
@@ -3609,7 +3585,7 @@
         <v>95691</v>
       </c>
       <c r="O28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="P28" t="s">
         <v>1</v>
@@ -3621,7 +3597,7 @@
         <v>-121.5138</v>
       </c>
       <c r="S28" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="T28" t="b">
         <v>0</v>
@@ -3632,46 +3608,46 @@
         <v>1261</v>
       </c>
       <c r="B29" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D29" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F29" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I29" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="J29" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="K29" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="L29" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>84115</v>
       </c>
       <c r="O29" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="P29" t="s">
         <v>1</v>
@@ -3683,7 +3659,7 @@
         <v>-111.89287</v>
       </c>
       <c r="S29" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="T29" t="b">
         <v>0</v>
@@ -3694,46 +3670,46 @@
         <v>1329</v>
       </c>
       <c r="B30" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C30" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E30" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G30" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H30" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N30">
         <v>78227</v>
       </c>
       <c r="O30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="P30" t="s">
         <v>1</v>
@@ -3745,7 +3721,7 @@
         <v>-98.601654999999894</v>
       </c>
       <c r="S30" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="T30" t="b">
         <v>1</v>
@@ -3756,46 +3732,46 @@
         <v>1262</v>
       </c>
       <c r="B31" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D31" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" t="s">
         <v>214</v>
       </c>
-      <c r="E31" t="s">
-        <v>221</v>
-      </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H31" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>98405</v>
       </c>
       <c r="O31" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P31" t="s">
         <v>1</v>
@@ -3807,7 +3783,7 @@
         <v>-122.497557043</v>
       </c>
       <c r="S31" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="T31" t="b">
         <v>1</v>
@@ -3818,55 +3794,55 @@
         <v>232</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" t="s">
+        <v>483</v>
+      </c>
+      <c r="H32" t="s">
         <v>216</v>
       </c>
-      <c r="F32" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" t="s">
-        <v>223</v>
-      </c>
       <c r="I32" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="J32" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K32" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="L32" t="s">
-        <v>331</v>
+        <v>480</v>
       </c>
       <c r="M32" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>21201</v>
+        <v>98337</v>
       </c>
       <c r="O32" t="s">
-        <v>55</v>
+        <v>482</v>
       </c>
       <c r="P32" t="s">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>39.283950000000097</v>
+        <v>47.567317600000003</v>
       </c>
       <c r="R32">
-        <v>-76.621560000000002</v>
+        <v>-122.63263910000001</v>
       </c>
       <c r="S32" t="s">
-        <v>56</v>
+        <v>481</v>
       </c>
       <c r="T32" t="b">
         <v>1</v>
@@ -3877,43 +3853,43 @@
         <v>225</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E33" t="s">
+        <v>209</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" t="s">
         <v>216</v>
       </c>
-      <c r="F33" t="s">
-        <v>161</v>
-      </c>
-      <c r="H33" t="s">
-        <v>223</v>
-      </c>
       <c r="I33" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="J33" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="M33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N33" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P33" t="s">
         <v>1</v>
@@ -3925,7 +3901,7 @@
         <v>-71.097710030000002</v>
       </c>
       <c r="S33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T33" t="b">
         <v>1</v>
@@ -3936,43 +3912,43 @@
         <v>241</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C34" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E34" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H34" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I34" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="J34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>60616</v>
       </c>
       <c r="O34" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P34" t="s">
         <v>1</v>
@@ -3984,7 +3960,7 @@
         <v>-87.633650000000003</v>
       </c>
       <c r="S34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="T34" t="b">
         <v>1</v>
@@ -3995,34 +3971,34 @@
         <v>227</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E35" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H35" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I35" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="J35" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K35" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s">
         <v>6</v>
@@ -4031,7 +4007,7 @@
         <v>44115</v>
       </c>
       <c r="O35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
         <v>1</v>
@@ -4043,7 +4019,7 @@
         <v>-81.685297454999997</v>
       </c>
       <c r="S35" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T35" t="b">
         <v>1</v>
@@ -4054,34 +4030,34 @@
         <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H36" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I36" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J36" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="K36" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s">
         <v>7</v>
@@ -4090,7 +4066,7 @@
         <v>48201</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
         <v>1</v>
@@ -4102,7 +4078,7 @@
         <v>-83.048831437999993</v>
       </c>
       <c r="S36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="T36" t="b">
         <v>0</v>
@@ -4113,43 +4089,43 @@
         <v>230</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I37" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J37" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N37">
         <v>77002</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P37" t="s">
         <v>1</v>
@@ -4161,7 +4137,7 @@
         <v>-95.355540000000005</v>
       </c>
       <c r="S37" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="T37" t="b">
         <v>1</v>
@@ -4172,43 +4148,43 @@
         <v>228</v>
       </c>
       <c r="B38" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I38" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K38" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>64141</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P38" t="s">
         <v>1</v>
@@ -4220,7 +4196,7 @@
         <v>-94.480429930999904</v>
       </c>
       <c r="S38" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="T38" t="b">
         <v>1</v>
@@ -4231,34 +4207,34 @@
         <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E39" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H39" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I39" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="J39" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K39" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M39" t="s">
         <v>3</v>
@@ -4267,7 +4243,7 @@
         <v>92806</v>
       </c>
       <c r="O39" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P39" t="s">
         <v>1</v>
@@ -4279,7 +4255,7 @@
         <v>-117.88271</v>
       </c>
       <c r="S39" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="T39" t="b">
         <v>1</v>
@@ -4290,43 +4266,43 @@
         <v>245</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F40" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H40" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I40" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="J40" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K40" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N40">
         <v>55415</v>
       </c>
       <c r="O40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P40" t="s">
         <v>1</v>
@@ -4338,7 +4314,7 @@
         <v>-93.277770000000004</v>
       </c>
       <c r="S40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T40" t="b">
         <v>1</v>
@@ -4349,34 +4325,34 @@
         <v>243</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E41" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" t="s">
         <v>216</v>
       </c>
-      <c r="F41" t="s">
-        <v>177</v>
-      </c>
-      <c r="H41" t="s">
-        <v>223</v>
-      </c>
       <c r="I41" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="K41" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M41" t="s">
         <v>8</v>
@@ -4385,7 +4361,7 @@
         <v>10451</v>
       </c>
       <c r="O41" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s">
         <v>1</v>
@@ -4397,7 +4373,7 @@
         <v>-73.926240000000007</v>
       </c>
       <c r="S41" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T41" t="b">
         <v>1</v>
@@ -4408,34 +4384,34 @@
         <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H42" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I42" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="K42" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s">
         <v>3</v>
@@ -4444,7 +4420,7 @@
         <v>94621</v>
       </c>
       <c r="O42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P42" t="s">
         <v>1</v>
@@ -4456,7 +4432,7 @@
         <v>-122.20062</v>
       </c>
       <c r="S42" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="T42" t="b">
         <v>1</v>
@@ -4467,43 +4443,43 @@
         <v>236</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H43" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="K43" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="L43" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>98104</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="P43" t="s">
         <v>1</v>
@@ -4515,7 +4491,7 @@
         <v>-122.33235000000001</v>
       </c>
       <c r="S43" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="T43" t="b">
         <v>1</v>
@@ -4526,34 +4502,34 @@
         <v>239</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H44" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I44" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="J44" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K44" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M44" t="s">
         <v>2</v>
@@ -4562,7 +4538,7 @@
         <v>33705</v>
       </c>
       <c r="O44" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P44" t="s">
         <v>1</v>
@@ -4574,7 +4550,7 @@
         <v>-82.653455625999996</v>
       </c>
       <c r="S44" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="T44" t="b">
         <v>1</v>
@@ -4585,43 +4561,43 @@
         <v>238</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H45" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="J45" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="L45" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="M45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N45">
         <v>76011</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P45" t="s">
         <v>1</v>
@@ -4633,7 +4609,7 @@
         <v>-97.082549999999998</v>
       </c>
       <c r="S45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="T45" t="b">
         <v>1</v>
@@ -4644,43 +4620,43 @@
         <v>247</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I46" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K46" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="M46" t="s">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P46" t="s">
         <v>5</v>
@@ -4692,7 +4668,7 @@
         <v>-79.389418172999996</v>
       </c>
       <c r="S46" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="T46" t="b">
         <v>1</v>
@@ -4703,43 +4679,43 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E47" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H47" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I47" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="J47" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K47" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L47" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="M47" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>85004</v>
       </c>
       <c r="O47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="P47" t="s">
         <v>1</v>
@@ -4751,7 +4727,7 @@
         <v>-112.06680131500001</v>
       </c>
       <c r="S47" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="T47" t="b">
         <v>1</v>
@@ -4762,43 +4738,43 @@
         <v>1293</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E48" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" t="s">
         <v>216</v>
       </c>
-      <c r="F48" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" t="s">
-        <v>223</v>
-      </c>
       <c r="I48" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K48" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L48" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>30339</v>
       </c>
       <c r="O48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="P48" t="s">
         <v>1</v>
@@ -4810,7 +4786,7 @@
         <v>-84.467761053999894</v>
       </c>
       <c r="S48" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="T48" t="b">
         <v>1</v>
@@ -4821,43 +4797,43 @@
         <v>242</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C49" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H49" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I49" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="J49" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K49" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="L49" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N49">
         <v>60613</v>
       </c>
       <c r="O49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P49" t="s">
         <v>1</v>
@@ -4869,7 +4845,7 @@
         <v>-87.655649940000004</v>
       </c>
       <c r="S49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="T49" t="b">
         <v>1</v>
@@ -4880,34 +4856,34 @@
         <v>226</v>
       </c>
       <c r="B50" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F50" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H50" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I50" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="J50" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="K50" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L50" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="M50" t="s">
         <v>6</v>
@@ -4916,7 +4892,7 @@
         <v>45202</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P50" t="s">
         <v>1</v>
@@ -4928,7 +4904,7 @@
         <v>-84.506459999999905</v>
       </c>
       <c r="S50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T50" t="b">
         <v>1</v>
@@ -4939,43 +4915,43 @@
         <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E51" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H51" t="s">
+        <v>216</v>
+      </c>
+      <c r="I51" t="s">
+        <v>394</v>
+      </c>
+      <c r="J51" t="s">
         <v>223</v>
       </c>
-      <c r="I51" t="s">
-        <v>404</v>
-      </c>
-      <c r="J51" t="s">
-        <v>230</v>
-      </c>
       <c r="K51" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N51">
         <v>80205</v>
       </c>
       <c r="O51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P51" t="s">
         <v>1</v>
@@ -4987,7 +4963,7 @@
         <v>-104.99414</v>
       </c>
       <c r="S51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T51" t="b">
         <v>1</v>
@@ -4998,34 +4974,34 @@
         <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C52" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E52" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I52" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K52" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="L52" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M52" t="s">
         <v>3</v>
@@ -5034,7 +5010,7 @@
         <v>90090</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P52" t="s">
         <v>1</v>
@@ -5046,7 +5022,7 @@
         <v>-118.23994999999999</v>
       </c>
       <c r="S52" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="T52" t="b">
         <v>1</v>
@@ -5057,34 +5033,34 @@
         <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C53" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E53" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H53" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I53" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="J53" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K53" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="L53" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s">
         <v>2</v>
@@ -5093,7 +5069,7 @@
         <v>33125</v>
       </c>
       <c r="O53" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P53" t="s">
         <v>1</v>
@@ -5105,7 +5081,7 @@
         <v>-80.219530000000006</v>
       </c>
       <c r="S53" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="T53" t="b">
         <v>1</v>
@@ -5116,34 +5092,34 @@
         <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" t="s">
         <v>217</v>
       </c>
-      <c r="F54" t="s">
-        <v>165</v>
-      </c>
-      <c r="H54" t="s">
-        <v>224</v>
-      </c>
       <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>229</v>
+      </c>
+      <c r="K54" t="s">
         <v>407</v>
       </c>
-      <c r="J54" t="s">
-        <v>236</v>
-      </c>
-      <c r="K54" t="s">
-        <v>417</v>
-      </c>
       <c r="L54" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M54" t="s">
         <v>0</v>
@@ -5152,7 +5128,7 @@
         <v>53214</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P54" t="s">
         <v>1</v>
@@ -5164,7 +5140,7 @@
         <v>-87.971179999999904</v>
       </c>
       <c r="S54" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="T54" t="b">
         <v>1</v>
@@ -5175,34 +5151,34 @@
         <v>237</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E55" t="s">
+        <v>209</v>
+      </c>
+      <c r="F55" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" t="s">
         <v>216</v>
       </c>
-      <c r="F55" t="s">
-        <v>172</v>
-      </c>
-      <c r="H55" t="s">
-        <v>223</v>
-      </c>
       <c r="I55" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="J55" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K55" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L55" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s">
         <v>8</v>
@@ -5211,7 +5187,7 @@
         <v>11368</v>
       </c>
       <c r="O55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P55" t="s">
         <v>1</v>
@@ -5223,7 +5199,7 @@
         <v>-73.845889825</v>
       </c>
       <c r="S55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="T55" t="b">
         <v>1</v>
@@ -5234,43 +5210,43 @@
         <v>221</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E56" t="s">
+        <v>209</v>
+      </c>
+      <c r="F56" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" t="s">
         <v>216</v>
       </c>
-      <c r="F56" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" t="s">
-        <v>223</v>
-      </c>
       <c r="I56" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="J56" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K56" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>19148</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P56" t="s">
         <v>1</v>
@@ -5282,7 +5258,7 @@
         <v>-75.166471555000001</v>
       </c>
       <c r="S56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T56" t="b">
         <v>1</v>
@@ -5293,43 +5269,43 @@
         <v>235</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C57" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H57" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="K57" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L57" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="M57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>15212</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P57" t="s">
         <v>1</v>
@@ -5341,7 +5317,7 @@
         <v>-80.006160028999901</v>
       </c>
       <c r="S57" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="T57" t="b">
         <v>1</v>
@@ -5352,43 +5328,43 @@
         <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="H58" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I58" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="J58" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K58" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="L58" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N58">
         <v>63102</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P58" t="s">
         <v>1</v>
@@ -5400,7 +5376,7 @@
         <v>-90.193060052000007</v>
       </c>
       <c r="S58" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T58" t="b">
         <v>1</v>
@@ -5411,34 +5387,34 @@
         <v>234</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E59" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F59" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H59" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I59" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="J59" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="K59" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M59" t="s">
         <v>3</v>
@@ -5447,7 +5423,7 @@
         <v>92101</v>
       </c>
       <c r="O59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s">
         <v>1</v>
@@ -5459,7 +5435,7 @@
         <v>-117.15703999999999</v>
       </c>
       <c r="S59" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="T59" t="b">
         <v>1</v>
@@ -5470,34 +5446,34 @@
         <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E60" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="I60" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="J60" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="K60" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L60" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="M60" t="s">
         <v>3</v>
@@ -5506,7 +5482,7 @@
         <v>94107</v>
       </c>
       <c r="O60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P60" t="s">
         <v>1</v>
@@ -5518,7 +5494,7 @@
         <v>-122.389691697</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="T60" t="b">
         <v>1</v>
@@ -5529,43 +5505,43 @@
         <v>244</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="E61" t="s">
+        <v>209</v>
+      </c>
+      <c r="F61" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" t="s">
         <v>216</v>
       </c>
-      <c r="F61" t="s">
-        <v>178</v>
-      </c>
-      <c r="H61" t="s">
-        <v>223</v>
-      </c>
       <c r="I61" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="J61" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K61" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="L61" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N61">
         <v>20003</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P61" t="s">
         <v>1</v>
@@ -5577,7 +5553,7 @@
         <v>-77.007400000000004</v>
       </c>
       <c r="S61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="T61" t="b">
         <v>1</v>
@@ -5585,6 +5561,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>